--- a/input data/variable_lexicon.xlsx
+++ b/input data/variable_lexicon.xlsx
@@ -4517,13 +4517,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C363" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10875" ySplit="0" topLeftCell="E363" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="C383" activeCellId="0" sqref="C383"/>
-      <selection pane="topRight" activeCell="E363" activeCellId="0" sqref="E363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="10454" ySplit="0" topLeftCell="J296" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A309" activeCellId="0" sqref="A309"/>
+      <selection pane="topRight" activeCell="J296" activeCellId="0" sqref="J296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.73"/>
@@ -18769,7 +18769,7 @@
         <v>1149</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M309" s="7" t="s">
         <v>49</v>
@@ -22650,7 +22650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>1415</v>
       </c>
@@ -22697,7 +22697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>1418</v>
       </c>
@@ -22744,7 +22744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>1422</v>
       </c>

--- a/input data/variable_lexicon.xlsx
+++ b/input data/variable_lexicon.xlsx
@@ -364,7 +364,7 @@
     <t xml:space="preserve">0, 25, 30, Inf</t>
   </si>
   <si>
-    <t xml:space="preserve">normal, overweigth, obesity</t>
+    <t xml:space="preserve">normal, overweight, obesity</t>
   </si>
   <si>
     <t xml:space="preserve">bmi_class_recent</t>
@@ -4517,13 +4517,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10454" ySplit="0" topLeftCell="J296" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A309" activeCellId="0" sqref="A309"/>
-      <selection pane="topRight" activeCell="J296" activeCellId="0" sqref="J296"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="13731" ySplit="0" topLeftCell="J10" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="H25 A21"/>
+      <selection pane="topRight" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.73"/>
